--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -410,13 +410,13 @@
 </t>
   </si>
   <si>
-    <t>內嵌的（contained）、行內的Resources</t>
-  </si>
-  <si>
-    <t>這些resource內嵌（contains）的resource不會另外存於任何FHIR伺服器，意即它們無法在任何FHIR伺服器中被找到，也無法有自己獨立的資料異動／交易（transaction）範圍。</t>
-  </si>
-  <si>
-    <t>當內容可以從任何FHIR伺服器找到時，不應該以內嵌（contained）resource的方式呈現，因為一旦失去識別，再次恢復它是非常困難的（並且取決於情境）。內嵌（contained）的resource可在它們的meta資料項目中表述profiles和tag，但不應該有安全標號（security labels）。</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -426,19 +426,23 @@
   </si>
   <si>
     <t>PractitionerRole.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>擴充的資料項目</t>
-  </si>
-  <si>
-    <t>可用於表示不屬於此resource基本定義的額外資訊。為了擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。儘管任何實作者都可以定義一個擴充，但作為擴充定義的一部分，**必須（SHALL）** 滿足一系列要求。</t>
-  </si>
-  <si>
-    <t>任何應用程式、專案或標準使用擴充時，都不應該帶有任何負面的聯想。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -451,14 +455,14 @@
     <t>PractitionerRole.modifierExtension</t>
   </si>
   <si>
-    <t>此擴充的資料項目可能會完全修正或改變其他資料項目的意涵，需特別留意。</t>
-  </si>
-  <si>
-    <t>可以用來表示不屬於此resource的基本定義的額外資訊，並修改包含它所內嵌（contained）的資料項目的理解和/或對包含資料項目之後續使用的理解。通常修飾用的資料項目提供否定或限定的資訊。為了使擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。雖然任何實作者都可以定義一個擴充，但在定義擴充時 **必須（SHALL）** 滿足一組要求。處理resource的應用程式需要檢查修飾用的擴充資料項目。  
-修飾用的擴充資料項目 **必須沒有（SHALL NOT）** 改變resource或DomainResource上任何資料項目的含義（包括不能改變modifierExtension本身的含義）。</t>
-  </si>
-  <si>
-    <t>修飾用的資料項目擴充允許將不能安全地忽略的擴充，與絕大多數可以安全地忽略的擴充明確區分開來。這樣做有助於促進可互操作性，因為無需禁止實作者使用擴充，想要瞭解更多資訊，請參見[修飾用的資料項目擴充之定義]（http://hl7.org/fhir/R4/extensibility.html#modifierExtension）。</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -586,17 +590,7 @@
     <t>PractitionerRole.practitioner.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -788,6 +782,9 @@
     <t>PractitionerRole.specialty.extension</t>
   </si>
   <si>
+    <t>擴充的資料項目</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty.coding</t>
   </si>
   <si>
@@ -820,19 +817,19 @@
     <t>CV</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartmentSCT</t>
-  </si>
-  <si>
-    <t>TWMedicalConsultationDepartmentSCT</t>
+    <t>PractitionerRole.specialty.coding:TWMedicalDepartmentSCT</t>
+  </si>
+  <si>
+    <t>TWMedicalDepartmentSCT</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/medical-consultation-department-sct-tw</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartmentSCT.id</t>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/medical-department-sct-tw</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalDepartmentSCT.id</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.coding.id</t>
@@ -841,7 +838,7 @@
     <t>resource中資料項目的唯一ID（用於內部參照），這可以是任何不含空格的字串。</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartmentSCT.extension</t>
+    <t>PractitionerRole.specialty.coding:TWMedicalDepartmentSCT.extension</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.coding.extension</t>
@@ -853,7 +850,7 @@
     <t>無論使用或定義擴充的機構或管轄區，任何應用程式、專案或標準使用擴充都不背負任何污名（stigma）。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartmentSCT.system</t>
+    <t>PractitionerRole.specialty.coding:TWMedicalDepartmentSCT.system</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.coding.system</t>
@@ -871,7 +868,7 @@
     <t>需要明確說明符號定義的來源</t>
   </si>
   <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/CodeSystem/medical-consultation-department-sct-tw</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -883,7 +880,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartmentSCT.version</t>
+    <t>PractitionerRole.specialty.coding:TWMedicalDepartmentSCT.version</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.coding.version</t>
@@ -907,7 +904,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartmentSCT.code</t>
+    <t>PractitionerRole.specialty.coding:TWMedicalDepartmentSCT.code</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.coding.code</t>
@@ -931,7 +928,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartmentSCT.display</t>
+    <t>PractitionerRole.specialty.coding:TWMedicalDepartmentSCT.display</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.coding.display</t>
@@ -955,7 +952,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartmentSCT.userSelected</t>
+    <t>PractitionerRole.specialty.coding:TWMedicalDepartmentSCT.userSelected</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.coding.userSelected</t>
@@ -982,37 +979,70 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartmentSCT</t>
-  </si>
-  <si>
-    <t>TWMedicalTreatmentDepartmentSCT</t>
-  </si>
-  <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/medical-treatment-department-sct-tw</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartmentSCT.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartmentSCT.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartmentSCT.system</t>
-  </si>
-  <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/CodeSystem/medical-treatment-department-sct-tw</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartmentSCT.version</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartmentSCT.code</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartmentSCT.display</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartmentSCT.userSelected</t>
+    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartment</t>
+  </si>
+  <si>
+    <t>TWMedicalConsultationDepartment</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/medical-consultation-department-tw</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartment.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartment.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartment.system</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/CodeSystem/medical-consultation-department-tw</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartment.version</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartment.code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartment.display</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalConsultationDepartment.userSelected</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartment</t>
+  </si>
+  <si>
+    <t>TWMedicalTreatmentDepartment</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/medical-treatment-department-tw</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartment.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartment.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartment.system</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/CodeSystem/medical-treatment-department-tw</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartment.version</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartment.code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartment.display</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:TWMedicalTreatmentDepartment.userSelected</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.text</t>
@@ -1279,9 +1309,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1702,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1711,9 +1738,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="80.48828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="76.92578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="37.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="33.640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1736,7 +1763,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="77.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="82.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="78.859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2677,7 +2704,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2696,16 +2723,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2755,7 +2782,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2767,13 +2794,13 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -2784,14 +2811,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2810,19 +2837,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2871,7 +2898,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2883,13 +2910,13 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -2900,10 +2927,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2926,17 +2953,17 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2985,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3000,24 +3027,24 @@
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3040,70 +3067,70 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3118,24 +3145,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3158,17 +3185,17 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3217,7 +3244,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3232,24 +3259,24 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3272,13 +3299,13 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3329,7 +3356,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3347,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3358,10 +3385,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3384,13 +3411,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3441,7 +3468,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3459,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3470,14 +3497,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3496,16 +3523,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3543,19 +3570,19 @@
         <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3567,13 +3594,13 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3584,10 +3611,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3610,16 +3637,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3669,7 +3696,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3678,7 +3705,7 @@
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
@@ -3698,10 +3725,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3727,13 +3754,13 @@
         <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3759,31 +3786,31 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3812,10 +3839,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3838,16 +3865,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3897,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3915,7 +3942,7 @@
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -3926,10 +3953,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3952,16 +3979,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4011,7 +4038,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4040,10 +4067,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4066,13 +4093,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4123,7 +4150,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4141,7 +4168,7 @@
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
@@ -4152,10 +4179,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4178,13 +4205,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4235,7 +4262,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4253,7 +4280,7 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4264,14 +4291,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4290,16 +4317,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4337,19 +4364,19 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4361,13 +4388,13 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4378,10 +4405,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4404,16 +4431,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4463,7 +4490,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4472,7 +4499,7 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -4492,10 +4519,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4521,13 +4548,13 @@
         <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4553,31 +4580,31 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4606,10 +4633,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4632,16 +4659,16 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4691,7 +4718,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4736,7 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4720,10 +4747,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4746,16 +4773,16 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4805,7 +4832,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4834,10 +4861,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4860,19 +4887,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4897,13 +4924,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4921,7 +4948,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4930,16 +4957,16 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -4950,10 +4977,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4976,16 +5003,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5014,10 +5041,10 @@
         <v>112</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5035,7 +5062,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5044,16 +5071,16 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -5064,10 +5091,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5090,13 +5117,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5147,7 +5174,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5165,7 +5192,7 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -5176,10 +5203,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5202,13 +5229,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5247,19 +5274,19 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5271,7 +5298,7 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -5288,10 +5315,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5314,19 +5341,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5363,17 +5390,17 @@
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5382,16 +5409,16 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5402,13 +5429,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>20</v>
@@ -5430,19 +5457,19 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5467,11 +5494,11 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5489,7 +5516,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5498,16 +5525,16 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5518,10 +5545,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5544,13 +5571,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5601,7 +5628,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5619,7 +5646,7 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5630,10 +5657,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5656,16 +5683,16 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5703,19 +5730,19 @@
         <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5727,7 +5754,7 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -5744,10 +5771,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5773,16 +5800,16 @@
         <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5792,46 +5819,46 @@
         <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5846,10 +5873,10 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -5860,10 +5887,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5886,16 +5913,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5945,7 +5972,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5960,10 +5987,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -5974,10 +6001,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6003,14 +6030,14 @@
         <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6059,7 +6086,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6074,10 +6101,10 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -6088,10 +6115,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6114,17 +6141,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6173,7 +6200,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6188,10 +6215,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6202,10 +6229,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6228,19 +6255,19 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6289,7 +6316,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6304,10 +6331,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6318,13 +6345,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>20</v>
@@ -6346,19 +6373,19 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6383,11 +6410,11 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6405,7 +6432,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6414,16 +6441,16 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6434,10 +6461,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6460,13 +6487,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6517,7 +6544,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6535,7 +6562,7 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6546,10 +6573,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6572,16 +6599,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M43" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6619,19 +6646,19 @@
         <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6643,7 +6670,7 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6660,10 +6687,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6689,16 +6716,16 @@
         <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6708,7 +6735,7 @@
         <v>20</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>20</v>
@@ -6747,7 +6774,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6762,10 +6789,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6776,10 +6803,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6802,16 +6829,16 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6861,7 +6888,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6876,10 +6903,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6890,10 +6917,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6919,14 +6946,14 @@
         <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6975,7 +7002,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6990,10 +7017,10 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7004,10 +7031,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7030,17 +7057,17 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7089,7 +7116,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7104,10 +7131,10 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7118,10 +7145,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7144,19 +7171,19 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7205,7 +7232,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7220,10 +7247,10 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7234,12 +7261,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7257,22 +7286,22 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7297,13 +7326,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7321,25 +7348,25 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7350,10 +7377,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7367,22 +7394,22 @@
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>331</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7433,39 +7460,39 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>330</v>
+        <v>181</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>336</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7476,7 +7503,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7488,15 +7515,17 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7533,37 +7562,37 @@
         <v>20</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7574,44 +7603,46 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7620,7 +7651,7 @@
         <v>20</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>20</v>
@@ -7647,37 +7678,37 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7688,10 +7719,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7699,13 +7730,13 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>20</v>
@@ -7714,16 +7745,16 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7773,7 +7804,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7782,16 +7813,16 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -7802,10 +7833,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7819,7 +7850,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>20</v>
@@ -7828,18 +7859,18 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -7863,13 +7894,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7887,7 +7918,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7902,10 +7933,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7916,10 +7947,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7933,7 +7964,7 @@
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>20</v>
@@ -7942,18 +7973,18 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8001,7 +8032,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8016,10 +8047,10 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8030,10 +8061,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8056,18 +8087,20 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8115,7 +8148,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8130,10 +8163,10 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8144,10 +8177,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8158,28 +8191,32 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8227,13 +8264,13 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
@@ -8242,10 +8279,10 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8256,10 +8293,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8270,7 +8307,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>88</v>
@@ -8282,18 +8319,16 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8341,7 +8376,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8359,21 +8394,21 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8396,13 +8431,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8453,7 +8488,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8471,7 +8506,7 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -8482,14 +8517,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8508,16 +8543,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8555,19 +8590,19 @@
         <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC60" t="s" s="2">
+      <c r="AF60" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8579,13 +8614,13 @@
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8596,10 +8631,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8622,15 +8657,17 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8655,13 +8692,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -8679,7 +8716,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>361</v>
+        <v>193</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8688,19 +8725,19 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>362</v>
+        <v>194</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>364</v>
+        <v>131</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
@@ -8708,10 +8745,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8719,13 +8756,13 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>20</v>
@@ -8734,20 +8771,18 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>368</v>
+        <v>197</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -8771,13 +8806,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -8795,7 +8830,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8810,13 +8845,13 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -8824,10 +8859,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8841,29 +8876,27 @@
         <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>376</v>
+        <v>204</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>377</v>
+        <v>205</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -8887,13 +8920,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -8911,7 +8944,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>381</v>
+        <v>207</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8926,13 +8959,13 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
@@ -8940,10 +8973,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8966,16 +8999,16 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>387</v>
+        <v>210</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>388</v>
+        <v>211</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>389</v>
+        <v>212</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9025,7 +9058,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>390</v>
+        <v>213</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9040,10 +9073,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -9054,10 +9087,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9068,25 +9101,25 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9137,13 +9170,13 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
@@ -9152,13 +9185,13 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>20</v>
@@ -9166,10 +9199,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9183,27 +9216,27 @@
         <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
       </c>
@@ -9251,7 +9284,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9269,7 +9302,7 @@
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -9280,10 +9313,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9306,13 +9339,13 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9363,7 +9396,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9381,7 +9414,7 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
@@ -9392,14 +9425,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9418,16 +9451,16 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9465,19 +9498,19 @@
         <v>20</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9489,13 +9522,13 @@
         <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
@@ -9506,46 +9539,42 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
       </c>
@@ -9569,13 +9598,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -9593,28 +9622,28 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>131</v>
+        <v>374</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>20</v>
@@ -9622,10 +9651,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9633,31 +9662,35 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
@@ -9681,13 +9714,13 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>413</v>
+        <v>20</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -9705,13 +9738,13 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>20</v>
@@ -9720,13 +9753,13 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>20</v>
@@ -9734,10 +9767,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9751,25 +9784,29 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
@@ -9793,13 +9830,13 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
@@ -9817,7 +9854,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9832,13 +9869,13 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>20</v>
@@ -9846,10 +9883,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9869,19 +9906,19 @@
         <v>20</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9931,7 +9968,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -9946,10 +9983,10 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>401</v>
+        <v>182</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -9960,10 +9997,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9977,26 +10014,24 @@
         <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>418</v>
+        <v>164</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10045,7 +10080,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10060,13 +10095,13 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>20</v>
@@ -10074,10 +10109,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10100,15 +10135,17 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10157,7 +10194,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10175,7 +10212,7 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
@@ -10186,10 +10223,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10212,13 +10249,13 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10269,7 +10306,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10287,7 +10324,7 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
@@ -10298,14 +10335,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10324,16 +10361,16 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10383,7 +10420,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10395,13 +10432,13 @@
         <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>20</v>
@@ -10412,14 +10449,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10438,19 +10475,19 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>408</v>
+        <v>143</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -10499,7 +10536,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10511,7 +10548,7 @@
         <v>20</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>20</v>
@@ -10528,10 +10565,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10539,10 +10576,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>20</v>
@@ -10554,13 +10591,13 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10587,13 +10624,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>20</v>
+        <v>422</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -10611,13 +10648,13 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>20</v>
@@ -10629,7 +10666,7 @@
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>20</v>
@@ -10640,10 +10677,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10666,13 +10703,13 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10723,7 +10760,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -10741,7 +10778,7 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
@@ -10752,10 +10789,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10778,15 +10815,17 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>177</v>
+        <v>427</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -10835,7 +10874,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -10853,7 +10892,7 @@
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
@@ -10864,10 +10903,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10878,7 +10917,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>20</v>
@@ -10890,18 +10929,18 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>20</v>
       </c>
@@ -10949,13 +10988,13 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>20</v>
@@ -10967,17 +11006,921 @@
         <v>20</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF83" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AM81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN81">
+  <autoFilter ref="A1:AN89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10987,7 +11930,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC PractitionerRole</t>
+    <t>長期照顧－服務人員角色</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長期照顧服務人員角色資料，包含醫師、護理師、藥師、照顧服務員等實際參與長照服務的人員角色資料。有關 PractitionerRole 與 Practitioner 的差異及相關解釋，請參照 [TW Core IG](https://build.fhir.org/ig/cctwFHIRterm/MOHW_TWCoreIG_Build/StructureDefinition-PractitionerRole-twcore.html) 中的說明。</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 PractitionerRole Resource，以呈現長期照顧服務人員的角色資料。
+有關 PractitionerRole 與 Practitioner 的差異及相關解釋，請參照 [TW Core IG](https://build.fhir.org/ig/cctwFHIRterm/MOHW_TWCoreIG_Build/StructureDefinition-PractitionerRole-twcore.html) 中的說明。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1739,17 +1739,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="76.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="33.640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.9453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="30.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1758,26 +1758,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="78.859375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="56.63671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.63671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="167.0703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1739,17 +1739,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1758,26 +1758,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.9453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="49.63671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="67.9765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="167.0703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -645,7 +645,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPractitionerRole.xlsx
+++ b/docs/StructureDefinition-LTCPractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
